--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljh3218\Driftfusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\Driftfusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4E6706-8108-4EF4-98A0-801C35F401FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA048225-BE94-4917-89E5-30CD49966F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3090" windowWidth="17280" windowHeight="10905" xr2:uid="{5A931F58-481F-444F-A327-F8AFA7FD7CD7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{5A931F58-481F-444F-A327-F8AFA7FD7CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,548 +385,548 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-1.9132423343498201E-2</v>
+        <v>-1.9130533563919999E-2</v>
       </c>
       <c r="B1">
-        <v>-1.8522597485903E-2</v>
+        <v>-1.8523804587510399E-2</v>
       </c>
       <c r="C1">
-        <v>-1.7777085807317499E-2</v>
+        <v>-1.7783179141584102E-2</v>
       </c>
       <c r="D1">
-        <v>-1.6886836100381199E-2</v>
+        <v>-1.69005050066512E-2</v>
       </c>
       <c r="E1">
-        <v>-1.5853779143527799E-2</v>
+        <v>-1.58793695184847E-2</v>
       </c>
       <c r="F1">
-        <v>-1.46985463381286E-2</v>
+        <v>-1.47432407939008E-2</v>
       </c>
       <c r="G1">
-        <v>-1.3459537190634301E-2</v>
+        <v>-1.35335415592486E-2</v>
       </c>
       <c r="H1">
-        <v>-1.21860451881698E-2</v>
+        <v>-1.2298629004361499E-2</v>
       </c>
       <c r="I1">
-        <v>-1.09293768775849E-2</v>
+        <v>-1.1081923077064701E-2</v>
       </c>
       <c r="J1">
-        <v>-9.7325797242596192E-3</v>
+        <v>-9.9155561468562206E-3</v>
       </c>
       <c r="K1">
-        <v>-8.6236988794845607E-3</v>
+        <v>-8.8204501305906603E-3</v>
       </c>
       <c r="L1">
-        <v>-7.6146458583669398E-3</v>
+        <v>-7.8078461061435699E-3</v>
       </c>
       <c r="M1">
-        <v>-6.7018551011442202E-3</v>
+        <v>-6.8777561655663701E-3</v>
       </c>
       <c r="N1">
-        <v>-5.86106925752552E-3</v>
+        <v>-6.0097153090369797E-3</v>
       </c>
       <c r="O1">
-        <v>-5.0180148230221698E-3</v>
+        <v>-5.12990319364213E-3</v>
       </c>
       <c r="P1">
-        <v>-3.9606037896812198E-3</v>
+        <v>-4.0247932799758503E-3</v>
       </c>
       <c r="Q1">
-        <v>-2.2582744746182698E-3</v>
+        <v>-2.27811611434013E-3</v>
       </c>
       <c r="R1">
-        <v>4.6209846595401201E-4</v>
+        <v>4.6042526411700299E-4</v>
       </c>
       <c r="S1">
-        <v>4.1115584315705202E-3</v>
+        <v>4.1217160496206896E-3</v>
       </c>
       <c r="T1">
-        <v>8.2156456826993299E-3</v>
+        <v>8.2474255408456799E-3</v>
       </c>
       <c r="U1">
-        <v>1.20158477798017E-2</v>
+        <v>1.2050394338858199E-2</v>
       </c>
       <c r="V1">
-        <v>1.4721968790370601E-2</v>
+        <v>1.47233605837982E-2</v>
       </c>
       <c r="W1">
-        <v>1.6183690690543599E-2</v>
+        <v>1.6150021871725699E-2</v>
       </c>
       <c r="X1">
-        <v>1.6880463516551099E-2</v>
+        <v>1.6830866346299898E-2</v>
       </c>
       <c r="Y1">
-        <v>1.7246603823988502E-2</v>
+        <v>1.7193468607772201E-2</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-2.0556540573706698E-2</v>
+        <v>-2.0552828071592599E-2</v>
       </c>
       <c r="B2">
-        <v>-2.0341272634009099E-2</v>
+        <v>-2.0337321338973501E-2</v>
       </c>
       <c r="C2">
-        <v>-2.0044402988398199E-2</v>
+        <v>-2.00405154957632E-2</v>
       </c>
       <c r="D2">
-        <v>-1.9640418794819901E-2</v>
+        <v>-1.9637182250674502E-2</v>
       </c>
       <c r="E2">
-        <v>-1.9105349458088498E-2</v>
+        <v>-1.9103675441395698E-2</v>
       </c>
       <c r="F2">
-        <v>-1.8418557502503201E-2</v>
+        <v>-1.84197264028539E-2</v>
       </c>
       <c r="G2">
-        <v>-1.7560734152120901E-2</v>
+        <v>-1.7566615840996402E-2</v>
       </c>
       <c r="H2">
-        <v>-1.6515475710019999E-2</v>
+        <v>-1.65290546975599E-2</v>
       </c>
       <c r="I2">
-        <v>-1.5280783174992599E-2</v>
+        <v>-1.53070819077112E-2</v>
       </c>
       <c r="J2">
-        <v>-1.3880727303001401E-2</v>
+        <v>-1.3927752208428399E-2</v>
       </c>
       <c r="K2">
-        <v>-1.2367099231774399E-2</v>
+        <v>-1.2443552084572901E-2</v>
       </c>
       <c r="L2">
-        <v>-1.0814610721925501E-2</v>
+        <v>-1.0921537343960499E-2</v>
       </c>
       <c r="M2">
-        <v>-9.2989709221911899E-3</v>
+        <v>-9.42350298875483E-3</v>
       </c>
       <c r="N2">
-        <v>-7.8563890762503499E-3</v>
+        <v>-7.9760936018652105E-3</v>
       </c>
       <c r="O2">
-        <v>-6.4329111598185702E-3</v>
+        <v>-6.5251751886639103E-3</v>
       </c>
       <c r="P2">
-        <v>-4.8193979145375104E-3</v>
+        <v>-4.8717847610392096E-3</v>
       </c>
       <c r="Q2">
-        <v>-2.6562937465234699E-3</v>
+        <v>-2.6802283924534098E-3</v>
       </c>
       <c r="R2">
-        <v>3.2520380912844598E-4</v>
+        <v>3.0427479519076701E-4</v>
       </c>
       <c r="S2">
-        <v>4.0597039571099204E-3</v>
+        <v>4.0381583155713798E-3</v>
       </c>
       <c r="T2">
-        <v>8.15691994140459E-3</v>
+        <v>8.1482317205659495E-3</v>
       </c>
       <c r="U2">
-        <v>1.1930531525603E-2</v>
+        <v>1.19280566838873E-2</v>
       </c>
       <c r="V2">
-        <v>1.46351144739474E-2</v>
+        <v>1.4613189500723199E-2</v>
       </c>
       <c r="W2">
-        <v>1.61163929595565E-2</v>
+        <v>1.6071140142928601E-2</v>
       </c>
       <c r="X2">
-        <v>1.6835554509425199E-2</v>
+        <v>1.6780494119050599E-2</v>
       </c>
       <c r="Y2">
-        <v>1.72216440817771E-2</v>
+        <v>1.71660830796086E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-2.1037708699813001E-2</v>
+        <v>-2.10359748052306E-2</v>
       </c>
       <c r="B3">
-        <v>-2.09776774464723E-2</v>
+        <v>-2.0975737271380499E-2</v>
       </c>
       <c r="C3">
-        <v>-2.08987847497372E-2</v>
+        <v>-2.0896591685863899E-2</v>
       </c>
       <c r="D3">
-        <v>-2.07920431281629E-2</v>
+        <v>-2.0789547500770798E-2</v>
       </c>
       <c r="E3">
-        <v>-2.0643262213658298E-2</v>
+        <v>-2.06404309421277E-2</v>
       </c>
       <c r="F3">
-        <v>-2.0430557068825898E-2</v>
+        <v>-2.0427426679250901E-2</v>
       </c>
       <c r="G3">
-        <v>-2.01226519497716E-2</v>
+        <v>-2.0119435048488999E-2</v>
       </c>
       <c r="H3">
-        <v>-1.96811024531332E-2</v>
+        <v>-1.9678327635058401E-2</v>
       </c>
       <c r="I3">
-        <v>-1.90674194000479E-2</v>
+        <v>-1.9066026628371899E-2</v>
       </c>
       <c r="J3">
-        <v>-1.8246826597458899E-2</v>
+        <v>-1.8248259184617699E-2</v>
       </c>
       <c r="K3">
-        <v>-1.7181376876851E-2</v>
+        <v>-1.7187952885921301E-2</v>
       </c>
       <c r="L3">
-        <v>-1.5825158056292699E-2</v>
+        <v>-1.5840913365946299E-2</v>
       </c>
       <c r="M3">
-        <v>-1.4137145946551299E-2</v>
+        <v>-1.41689097070185E-2</v>
       </c>
       <c r="N3">
-        <v>-1.21072682160828E-2</v>
+        <v>-1.21635033721838E-2</v>
       </c>
       <c r="O3">
-        <v>-9.7759552183103293E-3</v>
+        <v>-9.8581278839122103E-3</v>
       </c>
       <c r="P3">
-        <v>-7.1899622005043998E-3</v>
+        <v>-7.2875236685705702E-3</v>
       </c>
       <c r="Q3">
-        <v>-4.2931772381761902E-3</v>
+        <v>-4.3980574311943601E-3</v>
       </c>
       <c r="R3">
-        <v>-9.2737976632707101E-4</v>
+        <v>-1.0413334556064299E-3</v>
       </c>
       <c r="S3">
-        <v>2.9858207122454902E-3</v>
+        <v>2.8683031945581799E-3</v>
       </c>
       <c r="T3">
-        <v>7.2381920769354798E-3</v>
+        <v>7.1377674281200097E-3</v>
       </c>
       <c r="U3">
-        <v>1.1238234886253E-2</v>
+        <v>1.11659820651196E-2</v>
       </c>
       <c r="V3">
-        <v>1.42186642966712E-2</v>
+        <v>1.41591233227724E-2</v>
       </c>
       <c r="W3">
-        <v>1.5916673218020101E-2</v>
+        <v>1.5856158866459E-2</v>
       </c>
       <c r="X3">
-        <v>1.67592476300568E-2</v>
+        <v>1.6699506753529499E-2</v>
       </c>
       <c r="Y3">
-        <v>1.72150392658613E-2</v>
+        <v>1.7159911049242599E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-2.1241239478908099E-2</v>
+        <v>-2.09622898650225E-2</v>
       </c>
       <c r="B4">
-        <v>-2.12218320426951E-2</v>
+        <v>-2.08788256138456E-2</v>
       </c>
       <c r="C4">
-        <v>-2.1198345211613501E-2</v>
+        <v>-2.0766153033548802E-2</v>
       </c>
       <c r="D4">
-        <v>-2.1169416785488799E-2</v>
+        <v>-2.0610641783683398E-2</v>
       </c>
       <c r="E4">
-        <v>-2.1133031780536701E-2</v>
+        <v>-2.0393006983869099E-2</v>
       </c>
       <c r="F4">
-        <v>-2.1086100483723801E-2</v>
+        <v>-2.00887883013924E-2</v>
       </c>
       <c r="G4">
-        <v>-2.1023691298234799E-2</v>
+        <v>-1.9671578807905401E-2</v>
       </c>
       <c r="H4">
-        <v>-2.0937592621175199E-2</v>
+        <v>-1.9116241335833999E-2</v>
       </c>
       <c r="I4">
-        <v>-2.0813594647073001E-2</v>
+        <v>-1.8396725372304301E-2</v>
       </c>
       <c r="J4">
-        <v>-2.0626606223029299E-2</v>
+        <v>-1.74812004060356E-2</v>
       </c>
       <c r="K4">
-        <v>-2.0333562705094399E-2</v>
+        <v>-1.63348444269482E-2</v>
       </c>
       <c r="L4">
-        <v>-1.9869360387695399E-2</v>
+        <v>-1.4931259177807001E-2</v>
       </c>
       <c r="M4">
-        <v>-1.9158053350133399E-2</v>
+        <v>-1.3260232739482901E-2</v>
       </c>
       <c r="N4">
-        <v>-1.81289725052876E-2</v>
+        <v>-1.13325403332628E-2</v>
       </c>
       <c r="O4">
-        <v>-1.6691280917643301E-2</v>
+        <v>-9.1763084598249795E-3</v>
       </c>
       <c r="P4">
-        <v>-1.4676811513792199E-2</v>
+        <v>-6.7815644824036903E-3</v>
       </c>
       <c r="Q4">
-        <v>-1.18313574549763E-2</v>
+        <v>-4.0352378631048798E-3</v>
       </c>
       <c r="R4">
-        <v>-7.9770880030145697E-3</v>
+        <v>-7.6671771667246799E-4</v>
       </c>
       <c r="S4">
-        <v>-3.2118312300131301E-3</v>
+        <v>3.08612305760425E-3</v>
       </c>
       <c r="T4">
-        <v>2.1859518876856101E-3</v>
+        <v>7.2885430714390203E-3</v>
       </c>
       <c r="U4">
-        <v>7.6610897208397198E-3</v>
+        <v>1.1201639613767101E-2</v>
       </c>
       <c r="V4">
-        <v>1.2258099529294599E-2</v>
+        <v>1.4042656036720299E-2</v>
       </c>
       <c r="W4">
-        <v>1.52238923036132E-2</v>
+        <v>1.5622897230993299E-2</v>
       </c>
       <c r="X4">
-        <v>1.6772249645193901E-2</v>
+        <v>1.64115160987683E-2</v>
       </c>
       <c r="Y4">
-        <v>1.7587132478194201E-2</v>
+        <v>1.68531147486983E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-2.1310928419910901E-2</v>
+        <v>-2.1310401678451399E-2</v>
       </c>
       <c r="B5">
-        <v>-2.1300737778983E-2</v>
+        <v>-2.1300186801227701E-2</v>
       </c>
       <c r="C5">
-        <v>-2.1288975680055899E-2</v>
+        <v>-2.12883968119329E-2</v>
       </c>
       <c r="D5">
-        <v>-2.1275259659824099E-2</v>
+        <v>-2.1274648544775399E-2</v>
       </c>
       <c r="E5">
-        <v>-2.1259075179791E-2</v>
+        <v>-2.1258426586202701E-2</v>
       </c>
       <c r="F5">
-        <v>-2.1239714535142201E-2</v>
+        <v>-2.1239022147743401E-2</v>
       </c>
       <c r="G5">
-        <v>-2.1216179196932899E-2</v>
+        <v>-2.12154353875003E-2</v>
       </c>
       <c r="H5">
-        <v>-2.11870179368049E-2</v>
+        <v>-2.1186213584345099E-2</v>
       </c>
       <c r="I5">
-        <v>-2.1150047229433699E-2</v>
+        <v>-2.1149171833943901E-2</v>
       </c>
       <c r="J5">
-        <v>-2.1101845534980498E-2</v>
+        <v>-2.1100888430143398E-2</v>
       </c>
       <c r="K5">
-        <v>-2.1036792086586601E-2</v>
+        <v>-2.1035747431961901E-2</v>
       </c>
       <c r="L5">
-        <v>-2.0945150178442E-2</v>
+        <v>-2.0944034875553699E-2</v>
       </c>
       <c r="M5">
-        <v>-2.0809118113081299E-2</v>
+        <v>-2.0808034227666399E-2</v>
       </c>
       <c r="N5">
-        <v>-2.0594821041747001E-2</v>
+        <v>-2.0594168532204599E-2</v>
       </c>
       <c r="O5">
-        <v>-2.0238348410083401E-2</v>
+        <v>-2.0239497154042801E-2</v>
       </c>
       <c r="P5">
-        <v>-1.9632609992948601E-2</v>
+        <v>-1.9639591960634101E-2</v>
       </c>
       <c r="Q5">
-        <v>-1.8640022870558302E-2</v>
+        <v>-1.8662042270113002E-2</v>
       </c>
       <c r="R5">
-        <v>-1.7100756231312301E-2</v>
+        <v>-1.71549831218046E-2</v>
       </c>
       <c r="S5">
-        <v>-1.4687801893589101E-2</v>
+        <v>-1.48108236655394E-2</v>
       </c>
       <c r="T5">
-        <v>-1.0670044750448599E-2</v>
+        <v>-1.0940913445877699E-2</v>
       </c>
       <c r="U5">
-        <v>-4.2382391897570499E-3</v>
+        <v>-4.7445190138802199E-3</v>
       </c>
       <c r="V5">
-        <v>4.2261539039257197E-3</v>
+        <v>3.5073086092649599E-3</v>
       </c>
       <c r="W5">
-        <v>1.2932651966544801E-2</v>
+        <v>1.2129799077454E-2</v>
       </c>
       <c r="X5">
-        <v>1.9837449558499701E-2</v>
+        <v>1.9043825520315499E-2</v>
       </c>
       <c r="Y5">
-        <v>2.4238844370485301E-2</v>
+        <v>2.34416097747581E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-2.1341432551535099E-2</v>
+        <v>-2.1341093616542999E-2</v>
       </c>
       <c r="B6">
-        <v>-2.13350439038218E-2</v>
+        <v>-2.1334679062299501E-2</v>
       </c>
       <c r="C6">
-        <v>-2.1327875613173401E-2</v>
+        <v>-2.1327481107628301E-2</v>
       </c>
       <c r="D6">
-        <v>-2.1319778960204299E-2</v>
+        <v>-2.13193502873028E-2</v>
       </c>
       <c r="E6">
-        <v>-2.13105654326259E-2</v>
+        <v>-2.1310097171939699E-2</v>
       </c>
       <c r="F6">
-        <v>-2.12999925943771E-2</v>
+        <v>-2.1299478209375101E-2</v>
       </c>
       <c r="G6">
-        <v>-2.1287743499556502E-2</v>
+        <v>-2.1287175126683201E-2</v>
       </c>
       <c r="H6">
-        <v>-2.1273395919074602E-2</v>
+        <v>-2.1272764206760799E-2</v>
       </c>
       <c r="I6">
-        <v>-2.1256374953879199E-2</v>
+        <v>-2.1255669101504799E-2</v>
       </c>
       <c r="J6">
-        <v>-2.1235877452871602E-2</v>
+        <v>-2.1235085856121199E-2</v>
       </c>
       <c r="K6">
-        <v>-2.1210746251469299E-2</v>
+        <v>-2.1209858815657501E-2</v>
       </c>
       <c r="L6">
-        <v>-2.11792499621434E-2</v>
+        <v>-2.1178264778507299E-2</v>
       </c>
       <c r="M6">
-        <v>-2.1138671925388899E-2</v>
+        <v>-2.1137613813365E-2</v>
       </c>
       <c r="N6">
-        <v>-2.1084482044271099E-2</v>
+        <v>-2.10834533752975E-2</v>
       </c>
       <c r="O6">
-        <v>-2.1008521438228199E-2</v>
+        <v>-2.1007840381891799E-2</v>
       </c>
       <c r="P6">
-        <v>-2.0894740739059801E-2</v>
+        <v>-2.0895289992946899E-2</v>
       </c>
       <c r="Q6">
-        <v>-2.0709223584344801E-2</v>
+        <v>-2.0713077609657599E-2</v>
       </c>
       <c r="R6">
-        <v>-2.0380959479376799E-2</v>
+        <v>-2.03909382247301E-2</v>
       </c>
       <c r="S6">
-        <v>-1.9778453563432798E-2</v>
+        <v>-1.9792769617810901E-2</v>
       </c>
       <c r="T6">
-        <v>-1.86175934946246E-2</v>
+        <v>-1.8646251759743E-2</v>
       </c>
       <c r="U6">
-        <v>-1.59907077850561E-2</v>
+        <v>-1.6165314900589998E-2</v>
       </c>
       <c r="V6">
-        <v>-9.3295873153025899E-3</v>
+        <v>-1.01650610576448E-2</v>
       </c>
       <c r="W6">
-        <v>5.7907696308408798E-3</v>
+        <v>3.4394491794283999E-3</v>
       </c>
       <c r="X6">
-        <v>3.0797037506225301E-2</v>
+        <v>2.67647202407893E-2</v>
       </c>
       <c r="Y6">
-        <v>6.2120025874675702E-2</v>
+        <v>5.6730686637849401E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-2.12215102247897E-2</v>
+        <v>-2.12668010646648E-2</v>
       </c>
       <c r="B7">
-        <v>-2.1196122654579898E-2</v>
+        <v>-2.1246360237968501E-2</v>
       </c>
       <c r="C7">
-        <v>-2.11677114886301E-2</v>
+        <v>-2.1223039401659E-2</v>
       </c>
       <c r="D7">
-        <v>-2.1135996206675101E-2</v>
+        <v>-2.1196508832733101E-2</v>
       </c>
       <c r="E7">
-        <v>-2.11006591993225E-2</v>
+        <v>-2.1166411081304799E-2</v>
       </c>
       <c r="F7">
-        <v>-2.10613328039145E-2</v>
+        <v>-2.1132349925279799E-2</v>
       </c>
       <c r="G7">
-        <v>-2.1017583652995799E-2</v>
+        <v>-2.1093874596317199E-2</v>
       </c>
       <c r="H7">
-        <v>-2.0968893543677002E-2</v>
+        <v>-2.1050458944140801E-2</v>
       </c>
       <c r="I7">
-        <v>-2.09146351190427E-2</v>
+        <v>-2.10014746508802E-2</v>
       </c>
       <c r="J7">
-        <v>-2.08540397245108E-2</v>
+        <v>-2.0946156497078299E-2</v>
       </c>
       <c r="K7">
-        <v>-2.0786153300864599E-2</v>
+        <v>-2.0883555954247499E-2</v>
       </c>
       <c r="L7">
-        <v>-2.0709773618206501E-2</v>
+        <v>-2.081247646609E-2</v>
       </c>
       <c r="M7">
-        <v>-2.0623357176360199E-2</v>
+        <v>-2.0731378849787999E-2</v>
       </c>
       <c r="N7">
-        <v>-2.05248725645121E-2</v>
+        <v>-2.0638233568908999E-2</v>
       </c>
       <c r="O7">
-        <v>-2.0411544587556101E-2</v>
+        <v>-2.0530265077515299E-2</v>
       </c>
       <c r="P7">
-        <v>-2.0279329547788699E-2</v>
+        <v>-2.04034312164963E-2</v>
       </c>
       <c r="Q7">
-        <v>-2.0121640132674298E-2</v>
+        <v>-2.02511541707548E-2</v>
       </c>
       <c r="R7">
-        <v>-1.9926134673822701E-2</v>
+        <v>-2.0060984473201499E-2</v>
       </c>
       <c r="S7">
-        <v>-1.96695692107791E-2</v>
+        <v>-1.98077753485177E-2</v>
       </c>
       <c r="T7">
-        <v>-1.9315949995192701E-2</v>
+        <v>-1.94505930505325E-2</v>
       </c>
       <c r="U7">
-        <v>-1.8729674934026601E-2</v>
+        <v>-1.88828319436447E-2</v>
       </c>
       <c r="V7">
-        <v>-1.71354516946279E-2</v>
+        <v>-1.7485142914766699E-2</v>
       </c>
       <c r="W7">
-        <v>-1.1038560091731601E-2</v>
+        <v>-1.23469597125954E-2</v>
       </c>
       <c r="X7">
-        <v>7.9548382085008196E-3</v>
+        <v>4.4376913880226996E-3</v>
       </c>
       <c r="Y7">
-        <v>4.3998697678502299E-2</v>
+        <v>3.8488720438692697E-2</v>
       </c>
     </row>
   </sheetData>
